--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/TARGEST.Final-1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C9C6D4-A439-8745-9781-93F7D54B9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B42D60-9850-AB4E-8B1E-46A844BE3F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="5700" windowWidth="25240" windowHeight="13940" xr2:uid="{CFE0ACAC-9360-954F-991B-9C900A80A0C1}"/>
+    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{C9DAB98F-72DF-0846-8F37-3B867FB90553}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1445,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5DD79-4011-E140-B38B-F6BAAC8F4AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E073E27-32E3-0845-8D14-48AFD7091BD4}">
   <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/TARGEST.Final-1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C9C6D4-A439-8745-9781-93F7D54B9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2F3492-4F78-4D99-9B68-8207E4FDAF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="5700" windowWidth="25240" windowHeight="13940" xr2:uid="{CFE0ACAC-9360-954F-991B-9C900A80A0C1}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="14400" windowHeight="7283" xr2:uid="{9978926A-B9E2-4CD4-AD85-CCE5A8A50894}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,11 +36,257 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="353">
   <si>
     <t>Report</t>
   </si>
   <si>
+    <t>PUMP:SVATR:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 100 </t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 200 </t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 300 </t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 400 </t>
+  </si>
+  <si>
+    <t>PUMP:SVATR:500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 500 </t>
+  </si>
+  <si>
+    <t>PUMP:UT:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_aaa.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_bbb.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_ccc.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_ddd.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_eee.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_fff.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_ggg.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_hhh.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_iii.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_jjj.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_kkk.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_lll.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:UT:220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Test for pump_mmm.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_aaa.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_bbb.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_ccc.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_ddd.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_eee.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_fff.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_ggg.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_hhh.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_iii.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_jjj.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_kkk.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_lll.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:INS:220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Inspection Test for pump_mmm.c,h </t>
+  </si>
+  <si>
+    <t>PUMP:URS:1</t>
+  </si>
+  <si>
+    <t>The pump shall provide both a bolus and basal feature.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:3</t>
+  </si>
+  <si>
+    <t>The software shall provide a bolus calculator which is supported by programmable correction factors and carb ratios.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The software shall provide a reverse correction feature for the bolus calculator. </t>
+  </si>
+  <si>
+    <t>PUMP:URS:10</t>
+  </si>
+  <si>
+    <t>The software shall provide a means for the user to select between at least five different European human languages.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pump shall include a rechargeable Battery. </t>
+  </si>
+  <si>
+    <t>PUMP:URS:103</t>
+  </si>
+  <si>
+    <t>The pump shall display remaining battery charge.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:1000</t>
+  </si>
+  <si>
+    <t>The pump shall display remaining insulin volume.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:3330</t>
+  </si>
+  <si>
+    <t>The pump shall be small and lightweight.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:3350</t>
+  </si>
+  <si>
+    <t>The pump shall be easy to use.</t>
+  </si>
+  <si>
+    <t>PUMP:URS:4000</t>
+  </si>
+  <si>
+    <t>The pump shall include an automated dosing algorithm.</t>
+  </si>
+  <si>
     <t>PUMP:HRD:100</t>
   </si>
   <si>
@@ -71,6 +317,9 @@
     <t xml:space="preserve">Details regarding the full color touchscreen. </t>
   </si>
   <si>
+    <t>PUMP:HRD:0000</t>
+  </si>
+  <si>
     <t>PUMP:HRS:100</t>
   </si>
   <si>
@@ -110,31 +359,28 @@
     <t>PUMP:HTP:100</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 100 </t>
-  </si>
-  <si>
     <t>PUMP:HTP:200</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 200 </t>
+    <t xml:space="preserve">HTP:200 Test 200 </t>
   </si>
   <si>
     <t>PUMP:HTP:300</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 300 </t>
+    <t xml:space="preserve">HTP:300 Test 300 </t>
   </si>
   <si>
     <t>PUMP:HTP:400</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 400 </t>
+    <t xml:space="preserve">HTP:400 Test 400 </t>
   </si>
   <si>
     <t>PUMP:HTP:500</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 500 </t>
+    <t xml:space="preserve">HTP:500 Test 500 </t>
   </si>
   <si>
     <t>PUMP:HTP:1100</t>
@@ -170,33 +416,60 @@
     <t>PUMP:HTR:100</t>
   </si>
   <si>
-    <t>PUMP:HTR:200</t>
+    <t>PUMPHTR:200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTR:200 Test 200 </t>
   </si>
   <si>
     <t>PUMP:HTR:300</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:300 Test 300 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:400</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:400 Test 400 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:500</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:500 Test 500 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:1100</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:1100 Test 1100 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:1200</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:1200 Test 1200 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:1300</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:1300 Test 1300 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:1400</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:1400 Test 1400 </t>
+  </si>
+  <si>
     <t>PUMP:HTR:1500</t>
   </si>
   <si>
+    <t xml:space="preserve">HTR:1500 Test 1500 </t>
+  </si>
+  <si>
     <t>PUMP:PRS:1</t>
   </si>
   <si>
@@ -290,15 +563,9 @@
     <t>PUMP:RISK:40</t>
   </si>
   <si>
-    <t>The pump shall display remaining battery charge.</t>
-  </si>
-  <si>
     <t>PUMP:RISK:50</t>
   </si>
   <si>
-    <t>The pump shall display remaining insulin volume.</t>
-  </si>
-  <si>
     <t>PUMP:SDS:10</t>
   </si>
   <si>
@@ -473,229 +740,34 @@
     <t xml:space="preserve">This test validates remaining volume estimation… blah, blah, blah      </t>
   </si>
   <si>
-    <t>PUMP:SVATR:100</t>
-  </si>
-  <si>
-    <t>PUMP:SVATR:200</t>
-  </si>
-  <si>
-    <t>PUMP:SVATR:300</t>
-  </si>
-  <si>
-    <t>PUMP:SVATR:400</t>
-  </si>
-  <si>
-    <t>PUMP:SVATR:500</t>
-  </si>
-  <si>
-    <t>PUMP:UT:100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_aaa.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_bbb.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_ccc.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_ddd.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_eee.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_fff.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_ggg.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_hhh.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_iii.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_jjj.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_kkk.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_lll.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:UT:220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Test for pump_mmm.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_aaa.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_bbb.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_ccc.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_ddd.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_eee.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_fff.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_ggg.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_hhh.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_iii.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_jjj.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_kkk.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_lll.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:INS:220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Inspection Test for pump_mmm.c,h </t>
-  </si>
-  <si>
-    <t>PUMP:URS:1</t>
-  </si>
-  <si>
-    <t>The pump shall provide both a bolus and basal feature.</t>
-  </si>
-  <si>
-    <t>PUMP:URS:3</t>
-  </si>
-  <si>
-    <t>The software shall provide a bolus calculator which is supported by programmable correction factors and carb ratios.</t>
-  </si>
-  <si>
-    <t>PUMP:URS:8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The software shall provide a reverse correction feature for the bolus calculator. </t>
-  </si>
-  <si>
-    <t>PUMP:URS:10</t>
-  </si>
-  <si>
-    <t>The software shall provide a means for the user to select between at least five different European human languages.</t>
-  </si>
-  <si>
-    <t>PUMP:URS:100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The pump shall include a rechargeable Battery. </t>
-  </si>
-  <si>
-    <t>PUMP:URS:103</t>
-  </si>
-  <si>
-    <t>PUMP:URS:1000</t>
-  </si>
-  <si>
-    <t>PUMP:URS:3330</t>
-  </si>
-  <si>
-    <t>The pump shall be small and lightweight.</t>
-  </si>
-  <si>
-    <t>PUMP:URS:3350</t>
-  </si>
-  <si>
-    <t>The pump shall be easy to use.</t>
-  </si>
-  <si>
-    <t>PUMP:URS:4000</t>
-  </si>
-  <si>
-    <t>The pump shall include an automated dosing algorithm.</t>
+    <t xml:space="preserve">PUMP:URS:1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:3350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP:URS:4000 </t>
   </si>
   <si>
     <t xml:space="preserve">PUMP:RISK:10 </t>
@@ -713,39 +785,51 @@
     <t xml:space="preserve">PUMP:RISK:50 </t>
   </si>
   <si>
-    <t xml:space="preserve">PUMP:URS:1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:100 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:1000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3330 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:3350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUMP:URS:4000 </t>
+    <t>PUMP:UNIT:100</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:110</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:120</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:130</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:140</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:150</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:160</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:170</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:180</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:190</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:200</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:210</t>
+  </si>
+  <si>
+    <t>PUMP:UNIT:220</t>
   </si>
   <si>
     <t>PUMP:HRS:103</t>
   </si>
   <si>
+    <t>PUMP:TBV:1111</t>
+  </si>
+  <si>
     <t>PUMP:PRS:103</t>
   </si>
   <si>
@@ -761,60 +845,72 @@
     <t>PUMP:PRS:6</t>
   </si>
   <si>
-    <t>PUMP:TBD:1</t>
-  </si>
-  <si>
     <t>PUMP:DER:2</t>
   </si>
   <si>
     <t>ACE:SRS:1000</t>
   </si>
   <si>
-    <t>PUMP:UNIT:100</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:110</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:120</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:130</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:140</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:150</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:160</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:170</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:180</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:190</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:200</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:210</t>
-  </si>
-  <si>
-    <t>PUMP:UNIT:220</t>
-  </si>
-  <si>
     <t>Child Tag</t>
   </si>
   <si>
     <t>Text</t>
   </si>
   <si>
+    <t>[PUMP:SVAL:100]</t>
+  </si>
+  <si>
+    <t>[PUMP:SVAL:200]</t>
+  </si>
+  <si>
+    <t>[PUMP:SVAL:300]</t>
+  </si>
+  <si>
+    <t>[PUMP:SVAL:400]</t>
+  </si>
+  <si>
+    <t>[PUMP:SVAL:500]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:100]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:110]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:120]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:130]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:140]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:150]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:160]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:170]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:180]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:190]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:200]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:210]</t>
+  </si>
+  <si>
+    <t>[PUMP:UNIT:220]</t>
+  </si>
+  <si>
     <t>[PUMP:HRS:100]</t>
   </si>
   <si>
@@ -827,27 +923,30 @@
     <t>[PUMP:HRS:3330]</t>
   </si>
   <si>
+    <t>[PUMP:TBV:1111]</t>
+  </si>
+  <si>
+    <t>[PUMP:PRS:100]</t>
+  </si>
+  <si>
+    <t>[PUMP:PRS:103]</t>
+  </si>
+  <si>
+    <t>[PUMP:PRS:1000]</t>
+  </si>
+  <si>
+    <t>[PUMP:PRS:3330]</t>
+  </si>
+  <si>
+    <t>[PUMP:PRS:3350]</t>
+  </si>
+  <si>
+    <t>[PUMP:HRS:105]</t>
+  </si>
+  <si>
     <t>[PUMP:HRS:3350]</t>
   </si>
   <si>
-    <t>[PUMP:PRS:100]</t>
-  </si>
-  <si>
-    <t>[PUMP:PRS:103]</t>
-  </si>
-  <si>
-    <t>[PUMP:PRS:1000]</t>
-  </si>
-  <si>
-    <t>[PUMP:PRS:3330]</t>
-  </si>
-  <si>
-    <t>[PUMP:PRS:3350]</t>
-  </si>
-  <si>
-    <t>[PUMP:HRS:105]</t>
-  </si>
-  <si>
     <t>[PUMP:HRD:100]</t>
   </si>
   <si>
@@ -968,9 +1067,6 @@
     <t>[PUMP:PRS:105]</t>
   </si>
   <si>
-    <t>[PUMP:PRS:1][PUMP:TBD:1]</t>
-  </si>
-  <si>
     <t>[PUMP:PRS:1] [PUMP:PRS:5]</t>
   </si>
   <si>
@@ -990,60 +1086,6 @@
   </si>
   <si>
     <t>[BOLUS:SRS:12]</t>
-  </si>
-  <si>
-    <t>[PUMP:SVAL:100]</t>
-  </si>
-  <si>
-    <t>[PUMP:SVAL:200]</t>
-  </si>
-  <si>
-    <t>[PUMP:SVAL:300]</t>
-  </si>
-  <si>
-    <t>[PUMP:SVAL:400]</t>
-  </si>
-  <si>
-    <t>[PUMP:SVAL:500]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:100]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:110]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:120]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:130]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:140]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:150]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:160]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:170]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:180]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:190]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:200]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:210]</t>
-  </si>
-  <si>
-    <t>[PUMP:UNIT:220]</t>
   </si>
   <si>
     <t>Parent Tag</t>
@@ -1061,7 +1103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1445,26 +1487,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5DD79-4011-E140-B38B-F6BAAC8F4AD9}">
-  <dimension ref="A1:S123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01A37BB-CE32-47DB-A75C-FA86F9100049}">
+  <dimension ref="A1:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="179.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1487,27 +1529,27 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1524,22 +1566,22 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1556,22 +1598,22 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1588,22 +1630,22 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1620,22 +1662,22 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1652,22 +1694,22 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1684,22 +1726,22 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1716,22 +1758,22 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K10">
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1748,22 +1790,22 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K11">
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1780,22 +1822,22 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K12">
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1812,22 +1854,22 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H13">
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K13">
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1844,22 +1886,22 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1876,22 +1918,22 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="H15">
         <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K15">
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1908,22 +1950,22 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H16">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="K16">
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1940,22 +1982,22 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H17">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K17">
         <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1972,22 +2014,22 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="H18">
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K18">
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2004,22 +2046,22 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K19">
         <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>16</v>
       </c>
@@ -2036,22 +2078,22 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="H20">
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K20">
         <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2068,22 +2110,22 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="H21">
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="K21">
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2100,22 +2142,22 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H22">
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="K22">
         <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2132,22 +2174,22 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H23">
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K23">
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>20</v>
       </c>
@@ -2164,22 +2206,22 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="K24">
         <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2187,7 +2229,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -2196,2198 +2238,2224 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H25">
         <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="K25">
         <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H26">
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K26">
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H27">
         <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="K27">
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K28">
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H29">
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K29">
         <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H30">
         <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K30">
         <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H31">
         <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K31">
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H32">
         <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="K32">
         <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H33">
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K33">
         <v>29</v>
       </c>
       <c r="L33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H34">
         <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="K34">
         <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="H35">
         <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="K35">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="H36">
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="K36">
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="H38">
         <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K38">
         <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="H39">
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K39">
         <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="H40">
         <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K40">
         <v>36</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="K41">
         <v>37</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" t="s">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="K42">
         <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="K43">
         <v>39</v>
       </c>
       <c r="L43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" t="s">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="K44">
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K45">
         <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K46">
         <v>42</v>
       </c>
       <c r="L46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K47">
         <v>43</v>
       </c>
       <c r="L47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K48">
         <v>44</v>
       </c>
       <c r="L48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
       </c>
       <c r="K49">
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
       </c>
       <c r="K50">
         <v>46</v>
       </c>
       <c r="L50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D51">
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
       </c>
       <c r="K51">
         <v>47</v>
       </c>
       <c r="L51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D52">
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
       </c>
       <c r="K52">
         <v>48</v>
       </c>
       <c r="L52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D53">
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>298</v>
       </c>
       <c r="K53">
         <v>49</v>
       </c>
       <c r="L53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D54">
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K54">
         <v>50</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="K55">
+        <v>51</v>
+      </c>
+      <c r="L55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D56">
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D58">
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D59">
         <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D60">
         <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D61">
         <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D63">
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D64">
         <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D65">
         <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D66">
         <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D68">
         <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D69">
         <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D70">
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D71">
         <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D72">
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D73">
         <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D74">
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D75">
         <v>71</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D76">
         <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D77">
         <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D78">
         <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D79">
         <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D80">
         <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D81">
         <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D82">
         <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="D83">
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D84">
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="D85">
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="D86">
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D87">
         <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D88">
         <v>84</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D90">
         <v>86</v>
       </c>
       <c r="E90" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D91">
         <v>87</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D92">
         <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
-      </c>
-      <c r="F92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D93">
         <v>89</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
-      </c>
-      <c r="F93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="D95">
         <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
-      </c>
-      <c r="F95" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D96">
         <v>92</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D97">
         <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D98">
         <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D99">
         <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D100">
         <v>96</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D101">
         <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D102">
         <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D103">
         <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D104">
         <v>100</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D105">
         <v>101</v>
       </c>
       <c r="E105" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D106">
         <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D107">
         <v>103</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D108">
         <v>104</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D109">
         <v>105</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D110">
         <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D111">
         <v>107</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D112">
         <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D113">
         <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D114">
         <v>110</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D115">
         <v>111</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D116">
         <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D117">
         <v>113</v>
       </c>
       <c r="E117" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D118">
         <v>114</v>
       </c>
       <c r="E118" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="D119">
         <v>115</v>
       </c>
       <c r="E119" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="D120">
         <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D121">
         <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D122">
         <v>118</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="F122" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D123">
         <v>119</v>
       </c>
       <c r="E123" t="s">
-        <v>218</v>
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124">
+        <v>120</v>
+      </c>
+      <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5529D253-46E1-477F-8E7E-BA63D7D7466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1B24C3-38FD-4397-A7CF-47FB03B40D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{B5301609-3230-49BD-A3BE-2DA20832E6BB}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{651F4866-ECF1-4DC5-AD65-1BC19590A7BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3681B45-D29F-4063-9E41-65631A02EB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85574D9-1BB9-415D-90C2-54032B42F40F}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1B24C3-38FD-4397-A7CF-47FB03B40D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340F9DAC-4997-4AA7-8139-4FC5C348CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{651F4866-ECF1-4DC5-AD65-1BC19590A7BB}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{639D7AC7-88DD-43C4-A7F6-5BC14C285E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85574D9-1BB9-415D-90C2-54032B42F40F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4CA070-97EF-4E10-AF32-AAB6616A9788}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340F9DAC-4997-4AA7-8139-4FC5C348CC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9E098C-19CC-4B08-A3B0-48065359E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{639D7AC7-88DD-43C4-A7F6-5BC14C285E7D}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{9001BC15-036B-4D12-80FE-E0745E0BA2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4CA070-97EF-4E10-AF32-AAB6616A9788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CF777F-13D3-4A00-9A95-D080765F179F}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9E098C-19CC-4B08-A3B0-48065359E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE125B18-DB90-48E2-B9B7-F25686FC7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{9001BC15-036B-4D12-80FE-E0745E0BA2D7}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{45C546F5-2AF8-46F0-82C1-28237ED30C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CF777F-13D3-4A00-9A95-D080765F179F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC1679-AA68-4C60-A84E-3166AF2C9B9D}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE125B18-DB90-48E2-B9B7-F25686FC7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC37A497-A7E8-4B8F-8639-6A2C9B8B6951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{45C546F5-2AF8-46F0-82C1-28237ED30C21}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{87E44EA6-AFDC-4E7F-B3DB-E5ED6DD1A395}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC1679-AA68-4C60-A84E-3166AF2C9B9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8E6E00-A690-4E87-BE5D-9D5F351B4168}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC37A497-A7E8-4B8F-8639-6A2C9B8B6951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C37C38-449E-438D-971A-FC3B392FB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{87E44EA6-AFDC-4E7F-B3DB-E5ED6DD1A395}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="14400" windowHeight="7282" xr2:uid="{57E768BD-9CF4-431F-8D6D-6DE6BBAF99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8E6E00-A690-4E87-BE5D-9D5F351B4168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDEC20B-46A2-42F9-A8C4-C3528D42E9DF}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Tags&Requirements.xlsx
+++ b/Tags&Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\CS481\TARGEST.Final-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C37C38-449E-438D-971A-FC3B392FB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C582F814-0D09-4D9F-86F4-17537CD148EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="14400" windowHeight="7282" xr2:uid="{57E768BD-9CF4-431F-8D6D-6DE6BBAF99BB}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="14400" windowHeight="7282" xr2:uid="{26A90D40-2006-4370-A1A8-3138141BFC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDEC20B-46A2-42F9-A8C4-C3528D42E9DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E106F073-C6B1-4BDB-98F0-ACFA463076A6}">
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
